--- a/Code/Results/Cases/Case_3_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_73/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.17728312813281</v>
+        <v>18.71723686601473</v>
       </c>
       <c r="C2">
-        <v>13.65128629736742</v>
+        <v>9.378140749976851</v>
       </c>
       <c r="D2">
-        <v>5.610147380579139</v>
+        <v>8.879296903079922</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.23292617952011</v>
+        <v>33.22845121673124</v>
       </c>
       <c r="G2">
-        <v>2.090638517558616</v>
+        <v>3.66020160759573</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.76824457273822</v>
+        <v>24.44267138932052</v>
       </c>
       <c r="J2">
-        <v>5.738201445878524</v>
+        <v>10.11887976914525</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.341082356964737</v>
+        <v>12.07594715394128</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.38839413932893</v>
+        <v>25.17273522672529</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.55227813237835</v>
+        <v>18.10766080884897</v>
       </c>
       <c r="C3">
-        <v>12.93386142354724</v>
+        <v>9.033147561697822</v>
       </c>
       <c r="D3">
-        <v>5.501832403188642</v>
+        <v>8.874897766933957</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.11696303972638</v>
+        <v>33.3606308283217</v>
       </c>
       <c r="G3">
-        <v>2.096330652061174</v>
+        <v>3.662363898944179</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.12586945623995</v>
+        <v>24.60128565113983</v>
       </c>
       <c r="J3">
-        <v>5.817759963214116</v>
+        <v>10.14852508564772</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.080849080254513</v>
+        <v>12.04690565584355</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.43351831888877</v>
+        <v>25.29278939868239</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.49474663850359</v>
+        <v>17.72351906872316</v>
       </c>
       <c r="C4">
-        <v>12.47285174348347</v>
+        <v>8.813469573546193</v>
       </c>
       <c r="D4">
-        <v>5.436016248793808</v>
+        <v>8.87311349709333</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.07131534623009</v>
+        <v>33.45086546203495</v>
       </c>
       <c r="G4">
-        <v>2.099931884619144</v>
+        <v>3.663761981678636</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.35891353191511</v>
+        <v>24.70437569109774</v>
       </c>
       <c r="J4">
-        <v>5.868115340245837</v>
+        <v>10.16767817071315</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.919570514325687</v>
+        <v>12.03046191639189</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.48052438071614</v>
+        <v>25.37304514288324</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0486719587519</v>
+        <v>17.56471425146789</v>
       </c>
       <c r="C5">
-        <v>12.27994596915238</v>
+        <v>8.722072748622425</v>
       </c>
       <c r="D5">
-        <v>5.409395575685213</v>
+        <v>8.872618053399846</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.0589077491579</v>
+        <v>33.48991116020552</v>
       </c>
       <c r="G5">
-        <v>2.101426816603476</v>
+        <v>3.664349477498575</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.4571191872074</v>
+        <v>24.74781965883143</v>
       </c>
       <c r="J5">
-        <v>5.889021408924988</v>
+        <v>10.17572297383994</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.853558717313573</v>
+        <v>12.02411408146508</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.50429686761874</v>
+        <v>25.40739033538292</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.97368559612198</v>
+        <v>17.53821475973935</v>
       </c>
       <c r="C6">
-        <v>12.24761360533398</v>
+        <v>8.706786137679442</v>
       </c>
       <c r="D6">
-        <v>5.404988089089731</v>
+        <v>8.872549808475897</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.05721455171285</v>
+        <v>33.49653180014337</v>
       </c>
       <c r="G6">
-        <v>2.101676723303014</v>
+        <v>3.664448105395698</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.47361782241129</v>
+        <v>24.75512012130366</v>
       </c>
       <c r="J6">
-        <v>5.892516353054337</v>
+        <v>10.17707330893115</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.842582670491229</v>
+        <v>12.02308147208175</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.50851625813906</v>
+        <v>25.41319226181835</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.48879206917391</v>
+        <v>17.72138623962476</v>
       </c>
       <c r="C7">
-        <v>12.47027038451421</v>
+        <v>8.812244423240628</v>
       </c>
       <c r="D7">
-        <v>5.435656388283689</v>
+        <v>8.873105875943544</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.07112324914183</v>
+        <v>33.45138284777367</v>
       </c>
       <c r="G7">
-        <v>2.099951933965934</v>
+        <v>3.663769832845186</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.36022503572319</v>
+        <v>24.70495578488375</v>
       </c>
       <c r="J7">
-        <v>5.868395715290498</v>
+        <v>10.16778569401966</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.918681309518292</v>
+        <v>12.03037487220739</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.48082660114147</v>
+        <v>25.37350169881941</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.62933133372005</v>
+        <v>18.50922473857615</v>
       </c>
       <c r="C8">
-        <v>13.4082363007005</v>
+        <v>9.260871786367749</v>
       </c>
       <c r="D8">
-        <v>5.57267302313942</v>
+        <v>8.877590485027257</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.18750360266704</v>
+        <v>33.27213842360291</v>
       </c>
       <c r="G8">
-        <v>2.092579539114387</v>
+        <v>3.660932582451596</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.88866545909061</v>
+        <v>24.49617883115706</v>
       </c>
       <c r="J8">
-        <v>5.765324998876566</v>
+        <v>10.12890456684368</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.251713780027513</v>
+        <v>12.06564814392332</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.39980530131144</v>
+        <v>25.21276929056405</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.35686410010932</v>
+        <v>19.96743872948629</v>
       </c>
       <c r="C9">
-        <v>15.08102768051494</v>
+        <v>10.0745924863715</v>
       </c>
       <c r="D9">
-        <v>5.845700080220568</v>
+        <v>8.893608402008928</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.62800920265542</v>
+        <v>32.99299321429538</v>
       </c>
       <c r="G9">
-        <v>2.078932407152807</v>
+        <v>3.655924980076908</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.07845870146851</v>
+        <v>24.13197100240013</v>
       </c>
       <c r="J9">
-        <v>5.574816711314588</v>
+        <v>10.06017065780645</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.889497920859219</v>
+        <v>12.1456405951302</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.40456081972568</v>
+        <v>24.94969068006207</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.81485049868728</v>
+        <v>20.97582833395969</v>
       </c>
       <c r="C10">
-        <v>16.20487109468267</v>
+        <v>10.6278784969929</v>
       </c>
       <c r="D10">
-        <v>6.047490811902728</v>
+        <v>8.909709575702211</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.09278021949251</v>
+        <v>32.83246233653096</v>
       </c>
       <c r="G10">
-        <v>2.069351057176415</v>
+        <v>3.652581390664777</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.56567578811552</v>
+        <v>23.89190922139273</v>
       </c>
       <c r="J10">
-        <v>5.441437059553259</v>
+        <v>10.0142064751467</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.344696708896684</v>
+        <v>12.21074071745573</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.52193941189077</v>
+        <v>24.78846310634822</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.87343159726067</v>
+        <v>21.41912134041771</v>
       </c>
       <c r="C11">
-        <v>16.69289677847328</v>
+        <v>10.86918367157061</v>
       </c>
       <c r="D11">
-        <v>6.139271192334364</v>
+        <v>8.917958757072682</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.3369809782414</v>
+        <v>32.76919793354177</v>
       </c>
       <c r="G11">
-        <v>2.065077379040564</v>
+        <v>3.651132388646595</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.35375504429164</v>
+        <v>23.78866950052756</v>
       </c>
       <c r="J11">
-        <v>5.382075683571919</v>
+        <v>9.994271288181622</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.548172529874579</v>
+        <v>12.24166929777153</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.60297603304376</v>
+        <v>24.72213756847884</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.26583212219543</v>
+        <v>21.58463985694081</v>
       </c>
       <c r="C12">
-        <v>16.87434492033357</v>
+        <v>10.95901612004477</v>
       </c>
       <c r="D12">
-        <v>6.174002675196292</v>
+        <v>8.921213932595089</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.43431373155316</v>
+        <v>32.74665200227309</v>
       </c>
       <c r="G12">
-        <v>2.063470239513198</v>
+        <v>3.650593986655613</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.27691976303915</v>
+        <v>23.75043315680571</v>
       </c>
       <c r="J12">
-        <v>5.35977625240289</v>
+        <v>9.986861717456659</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.624658417277894</v>
+        <v>12.25356453220755</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.6378642951134</v>
+        <v>24.69803593446469</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.18169625594798</v>
+        <v>21.54909874722767</v>
       </c>
       <c r="C13">
-        <v>16.83541626192847</v>
+        <v>10.93973852608007</v>
       </c>
       <c r="D13">
-        <v>6.166524007323455</v>
+        <v>8.920507054614877</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.41313311689457</v>
+        <v>32.75144481049081</v>
       </c>
       <c r="G13">
-        <v>2.063815883953378</v>
+        <v>3.65070948372255</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.29330973784627</v>
+        <v>23.75862985599163</v>
       </c>
       <c r="J13">
-        <v>5.364571009447651</v>
+        <v>9.98845130889438</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.608211679715209</v>
+        <v>12.25099462380381</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.63016012480157</v>
+        <v>24.70318145321315</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.90588358677403</v>
+        <v>21.43278636598173</v>
       </c>
       <c r="C14">
-        <v>16.70789195814917</v>
+        <v>10.87660546327873</v>
       </c>
       <c r="D14">
-        <v>6.142129164788425</v>
+        <v>8.918223938374309</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.34489043875637</v>
+        <v>32.76731474941815</v>
       </c>
       <c r="G14">
-        <v>2.064944940046258</v>
+        <v>3.651087887786297</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.34736317761929</v>
+        <v>23.78550656891364</v>
       </c>
       <c r="J14">
-        <v>5.380237555777858</v>
+        <v>9.993658907102017</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.554476665005902</v>
+        <v>12.24264428674914</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.60576084652117</v>
+        <v>24.72013435231699</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.73584163664939</v>
+        <v>21.36123248338155</v>
       </c>
       <c r="C15">
-        <v>16.62934218232862</v>
+        <v>10.83773209987273</v>
       </c>
       <c r="D15">
-        <v>6.127182919870791</v>
+        <v>8.916842526488672</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.30372669323301</v>
+        <v>32.77721949583371</v>
       </c>
       <c r="G15">
-        <v>2.065637948348528</v>
+        <v>3.651321011505923</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.38092820970533</v>
+        <v>23.80208112291504</v>
       </c>
       <c r="J15">
-        <v>5.389856846136057</v>
+        <v>9.99686685353111</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.521487392788774</v>
+        <v>12.23755315557446</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.59136928885004</v>
+        <v>24.73065075380523</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.74447993580996</v>
+        <v>20.94653631646676</v>
       </c>
       <c r="C16">
-        <v>16.17250846630656</v>
+        <v>10.61189510086559</v>
       </c>
       <c r="D16">
-        <v>6.041490553154369</v>
+        <v>8.909188945945282</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.0774935316598</v>
+        <v>32.83679387042798</v>
       </c>
       <c r="G16">
-        <v>2.069631976926643</v>
+        <v>3.652677531010536</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.57998323934296</v>
+        <v>23.8987762588227</v>
       </c>
       <c r="J16">
-        <v>5.44534210072877</v>
+        <v>10.01552883494113</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.331322363260188</v>
+        <v>12.20874542212698</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.51721929635839</v>
+        <v>24.79293930214587</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.12112810951533</v>
+        <v>20.68808588178169</v>
       </c>
       <c r="C17">
-        <v>15.88629266098783</v>
+        <v>10.47065243671363</v>
       </c>
       <c r="D17">
-        <v>5.988901197821333</v>
+        <v>8.904729454600961</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.94721075079552</v>
+        <v>32.87584630053882</v>
       </c>
       <c r="G17">
-        <v>2.072103244387711</v>
+        <v>3.653528119185532</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.70779477003462</v>
+        <v>23.95962380717693</v>
       </c>
       <c r="J17">
-        <v>5.479710381346337</v>
+        <v>10.02722640958524</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.213703915980524</v>
+        <v>12.19140539984157</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.47897463412996</v>
+        <v>24.83295247783008</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.7569792330936</v>
+        <v>20.53798649138988</v>
       </c>
       <c r="C18">
-        <v>15.71948390889178</v>
+        <v>10.38843823724658</v>
       </c>
       <c r="D18">
-        <v>5.958652930414854</v>
+        <v>8.902251607142714</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.87535280605258</v>
+        <v>32.89922665537593</v>
       </c>
       <c r="G18">
-        <v>2.073532709792993</v>
+        <v>3.654024136338892</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.78329438618382</v>
+        <v>23.9951831821679</v>
       </c>
       <c r="J18">
-        <v>5.499602353123493</v>
+        <v>10.03404627406207</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.145716805037878</v>
+        <v>12.18155593328321</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.45956599891104</v>
+        <v>24.85662722476486</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.63271743339364</v>
+        <v>20.48692130457645</v>
       </c>
       <c r="C19">
-        <v>15.66263081275548</v>
+        <v>10.36043610722196</v>
       </c>
       <c r="D19">
-        <v>5.94841203112489</v>
+        <v>8.901427662793159</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.85154671746747</v>
+        <v>32.90730035827249</v>
       </c>
       <c r="G19">
-        <v>2.074018115543458</v>
+        <v>3.654193245509944</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.8091885972913</v>
+        <v>24.0073193975434</v>
       </c>
       <c r="J19">
-        <v>5.506359053422575</v>
+        <v>10.03637113680321</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.122641430094754</v>
+        <v>12.17824255103023</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.45343210036436</v>
+        <v>24.86475632031608</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.18806519125982</v>
+        <v>20.71574895686672</v>
       </c>
       <c r="C20">
-        <v>15.91698713044541</v>
+        <v>10.48578927560134</v>
       </c>
       <c r="D20">
-        <v>5.994499614015009</v>
+        <v>8.905195168230588</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.96075997474886</v>
+        <v>32.8715939954254</v>
       </c>
       <c r="G20">
-        <v>2.071839346842055</v>
+        <v>3.653436871156607</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.69398114695997</v>
+        <v>23.95308836834227</v>
       </c>
       <c r="J20">
-        <v>5.476039027389354</v>
+        <v>10.02597169377073</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.226259763276571</v>
+        <v>12.19323847638209</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.48277624922657</v>
+        <v>24.82862463759587</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.98712523521606</v>
+        <v>21.46701477500098</v>
       </c>
       <c r="C21">
-        <v>16.74544011868685</v>
+        <v>10.89519146424387</v>
       </c>
       <c r="D21">
-        <v>6.149295327973769</v>
+        <v>8.918890992017024</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.36480200793461</v>
+        <v>32.76261501625754</v>
       </c>
       <c r="G21">
-        <v>2.064613013025713</v>
+        <v>3.650976462114072</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.33139071132907</v>
+        <v>23.77758892864061</v>
       </c>
       <c r="J21">
-        <v>5.375631119428926</v>
+        <v>9.992125529580857</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.570275652518664</v>
+        <v>12.24509205639858</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.61281172477518</v>
+        <v>24.71512730245049</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.11364793165175</v>
+        <v>21.94428156475577</v>
       </c>
       <c r="C22">
-        <v>17.26731710903425</v>
+        <v>11.15373767790964</v>
       </c>
       <c r="D22">
-        <v>6.250316273831118</v>
+        <v>8.928607060670613</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.65724636793663</v>
+        <v>32.69961796042028</v>
       </c>
       <c r="G22">
-        <v>2.059955006087659</v>
+        <v>3.649428476210904</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.11451519105181</v>
+        <v>23.66789301534094</v>
       </c>
       <c r="J22">
-        <v>5.311049884808907</v>
+        <v>9.970817648868845</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.791793757581749</v>
+        <v>12.28004670641869</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.72238416042622</v>
+        <v>24.64686537965068</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.51687399216075</v>
+        <v>21.69085005946364</v>
       </c>
       <c r="C23">
-        <v>16.99057464449344</v>
+        <v>11.0165872084455</v>
       </c>
       <c r="D23">
-        <v>6.196419538749373</v>
+        <v>8.923351949217292</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.49852254807583</v>
+        <v>32.73248563177822</v>
       </c>
       <c r="G23">
-        <v>2.062435491436489</v>
+        <v>3.650249189365183</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.22829983217139</v>
+        <v>23.72598182145152</v>
       </c>
       <c r="J23">
-        <v>5.345426095307556</v>
+        <v>9.982115924637156</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.673882918077894</v>
+        <v>12.26129521742503</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.66158146901636</v>
+        <v>24.68275509025131</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.15782093422504</v>
+        <v>20.70324718273678</v>
       </c>
       <c r="C24">
-        <v>15.90311719704917</v>
+        <v>10.47894905872996</v>
       </c>
       <c r="D24">
-        <v>5.991968611833178</v>
+        <v>8.904984351196337</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.95462490248744</v>
+        <v>32.87351357057662</v>
       </c>
       <c r="G24">
-        <v>2.071958627746488</v>
+        <v>3.653478102573687</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.70022002248094</v>
+        <v>23.95604124194503</v>
       </c>
       <c r="J24">
-        <v>5.477698430946949</v>
+        <v>10.02653865552778</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.220584403103487</v>
+        <v>12.19240936968737</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.48104952419153</v>
+        <v>24.83057916552845</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.39818568022423</v>
+        <v>19.58334989288337</v>
       </c>
       <c r="C25">
-        <v>14.64677009515266</v>
+        <v>9.862009690349725</v>
       </c>
       <c r="D25">
-        <v>5.771528426424679</v>
+        <v>8.888508822487228</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.48483378969539</v>
+        <v>33.06071600656732</v>
       </c>
       <c r="G25">
-        <v>2.08254243494391</v>
+        <v>3.657220493876783</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.28419380745981</v>
+        <v>24.22566362935043</v>
       </c>
       <c r="J25">
-        <v>5.625160561924644</v>
+        <v>10.0779654566289</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.719046114697846</v>
+        <v>12.12286866710939</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.38428128282227</v>
+        <v>25.01525143208717</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_73/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.71723686601473</v>
+        <v>24.17728312813281</v>
       </c>
       <c r="C2">
-        <v>9.378140749976851</v>
+        <v>13.65128629736744</v>
       </c>
       <c r="D2">
-        <v>8.879296903079922</v>
+        <v>5.610147380579022</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.22845121673124</v>
+        <v>21.23292617952025</v>
       </c>
       <c r="G2">
-        <v>3.66020160759573</v>
+        <v>2.090638517558215</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.44267138932052</v>
+        <v>13.7682445727383</v>
       </c>
       <c r="J2">
-        <v>10.11887976914525</v>
+        <v>5.738201445878589</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.07594715394128</v>
+        <v>8.341082356964836</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.17273522672529</v>
+        <v>15.38839413932907</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.10766080884897</v>
+        <v>22.55227813237834</v>
       </c>
       <c r="C3">
-        <v>9.033147561697822</v>
+        <v>12.93386142354705</v>
       </c>
       <c r="D3">
-        <v>8.874897766933957</v>
+        <v>5.501832403188684</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.3606308283217</v>
+        <v>21.11696303972659</v>
       </c>
       <c r="G3">
-        <v>3.662363898944179</v>
+        <v>2.09633065206104</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.60128565113983</v>
+        <v>14.12586945624003</v>
       </c>
       <c r="J3">
-        <v>10.14852508564772</v>
+        <v>5.81775996321405</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.04690565584355</v>
+        <v>8.080849080254525</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.29278939868239</v>
+        <v>15.43351831888892</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.72351906872316</v>
+        <v>21.49474663850357</v>
       </c>
       <c r="C4">
-        <v>8.813469573546193</v>
+        <v>12.47285174348368</v>
       </c>
       <c r="D4">
-        <v>8.87311349709333</v>
+        <v>5.436016248793837</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.45086546203495</v>
+        <v>21.07131534623023</v>
       </c>
       <c r="G4">
-        <v>3.663761981678636</v>
+        <v>2.099931884619276</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.70437569109774</v>
+        <v>14.35891353191529</v>
       </c>
       <c r="J4">
-        <v>10.16767817071315</v>
+        <v>5.868115340245772</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.03046191639189</v>
+        <v>7.919570514325611</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.37304514288324</v>
+        <v>15.48052438071621</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.56471425146789</v>
+        <v>21.04867195875191</v>
       </c>
       <c r="C5">
-        <v>8.722072748622425</v>
+        <v>12.27994596915222</v>
       </c>
       <c r="D5">
-        <v>8.872618053399846</v>
+        <v>5.409395575685312</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.48991116020552</v>
+        <v>21.05890774915784</v>
       </c>
       <c r="G5">
-        <v>3.664349477498575</v>
+        <v>2.101426816603477</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.74781965883143</v>
+        <v>14.45711918720736</v>
       </c>
       <c r="J5">
-        <v>10.17572297383994</v>
+        <v>5.88902140892502</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.02411408146508</v>
+        <v>7.853558717313545</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.40739033538292</v>
+        <v>15.50429686761865</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.53821475973935</v>
+        <v>20.97368559612202</v>
       </c>
       <c r="C6">
-        <v>8.706786137679442</v>
+        <v>12.24761360533398</v>
       </c>
       <c r="D6">
-        <v>8.872549808475897</v>
+        <v>5.404988089089946</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.49653180014337</v>
+        <v>21.05721455171294</v>
       </c>
       <c r="G6">
-        <v>3.664448105395698</v>
+        <v>2.101676723303282</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.75512012130366</v>
+        <v>14.47361782241129</v>
       </c>
       <c r="J6">
-        <v>10.17707330893115</v>
+        <v>5.892516353054271</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.02308147208175</v>
+        <v>7.842582670491309</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.41319226181835</v>
+        <v>15.50851625813906</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.72138623962476</v>
+        <v>21.48879206917387</v>
       </c>
       <c r="C7">
-        <v>8.812244423240628</v>
+        <v>12.47027038451425</v>
       </c>
       <c r="D7">
-        <v>8.873105875943544</v>
+        <v>5.435656388283593</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.45138284777367</v>
+        <v>21.07112324914193</v>
       </c>
       <c r="G7">
-        <v>3.663769832845186</v>
+        <v>2.099951933966068</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.70495578488375</v>
+        <v>14.36022503572331</v>
       </c>
       <c r="J7">
-        <v>10.16778569401966</v>
+        <v>5.868395715290533</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.03037487220739</v>
+        <v>7.918681309518299</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.37350169881941</v>
+        <v>15.48082660114161</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.50922473857615</v>
+        <v>23.62933133372003</v>
       </c>
       <c r="C8">
-        <v>9.260871786367749</v>
+        <v>13.4082363007004</v>
       </c>
       <c r="D8">
-        <v>8.877590485027257</v>
+        <v>5.572673023139315</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.27213842360291</v>
+        <v>21.18750360266724</v>
       </c>
       <c r="G8">
-        <v>3.660932582451596</v>
+        <v>2.092579539114521</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.49617883115706</v>
+        <v>13.8886654590908</v>
       </c>
       <c r="J8">
-        <v>10.12890456684368</v>
+        <v>5.7653249988766</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.06564814392332</v>
+        <v>8.251713780027499</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.21276929056405</v>
+        <v>15.39980530131163</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.96743872948629</v>
+        <v>27.35686410010929</v>
       </c>
       <c r="C9">
-        <v>10.0745924863715</v>
+        <v>15.08102768051484</v>
       </c>
       <c r="D9">
-        <v>8.893608402008928</v>
+        <v>5.845700080220522</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.99299321429538</v>
+        <v>21.62800920265539</v>
       </c>
       <c r="G9">
-        <v>3.655924980076908</v>
+        <v>2.078932407152672</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.13197100240013</v>
+        <v>13.07845870146851</v>
       </c>
       <c r="J9">
-        <v>10.06017065780645</v>
+        <v>5.574816711314623</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.1456405951302</v>
+        <v>8.889497920859158</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.94969068006207</v>
+        <v>15.40456081972567</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.97582833395969</v>
+        <v>29.81485049868725</v>
       </c>
       <c r="C10">
-        <v>10.6278784969929</v>
+        <v>16.20487109468268</v>
       </c>
       <c r="D10">
-        <v>8.909709575702211</v>
+        <v>6.047490811902671</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.83246233653096</v>
+        <v>22.09278021949256</v>
       </c>
       <c r="G10">
-        <v>3.652581390664777</v>
+        <v>2.069351057176014</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.89190922139273</v>
+        <v>12.56567578811564</v>
       </c>
       <c r="J10">
-        <v>10.0142064751467</v>
+        <v>5.441437059553293</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.21074071745573</v>
+        <v>9.344696708896679</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.78846310634822</v>
+        <v>15.52193941189086</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.41912134041771</v>
+        <v>30.87343159726061</v>
       </c>
       <c r="C11">
-        <v>10.86918367157061</v>
+        <v>16.6928967784733</v>
       </c>
       <c r="D11">
-        <v>8.917958757072682</v>
+        <v>6.139271192334415</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.76919793354177</v>
+        <v>22.33698097824162</v>
       </c>
       <c r="G11">
-        <v>3.651132388646595</v>
+        <v>2.065077379041099</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.78866950052756</v>
+        <v>12.3537550442919</v>
       </c>
       <c r="J11">
-        <v>9.994271288181622</v>
+        <v>5.382075683571949</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.24166929777153</v>
+        <v>9.548172529874519</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.72213756847884</v>
+        <v>15.60297603304393</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.58463985694081</v>
+        <v>31.26583212219542</v>
       </c>
       <c r="C12">
-        <v>10.95901612004477</v>
+        <v>16.87434492033354</v>
       </c>
       <c r="D12">
-        <v>8.921213932595089</v>
+        <v>6.174002675196223</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.74665200227309</v>
+        <v>22.43431373155314</v>
       </c>
       <c r="G12">
-        <v>3.650593986655613</v>
+        <v>2.063470239513066</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.75043315680571</v>
+        <v>12.2769197630392</v>
       </c>
       <c r="J12">
-        <v>9.986861717456659</v>
+        <v>5.359776252402892</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.25356453220755</v>
+        <v>9.624658417277848</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.69803593446469</v>
+        <v>15.63786429511341</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.54909874722767</v>
+        <v>31.18169625594798</v>
       </c>
       <c r="C13">
-        <v>10.93973852608007</v>
+        <v>16.83541626192851</v>
       </c>
       <c r="D13">
-        <v>8.920507054614877</v>
+        <v>6.16652400732339</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.75144481049081</v>
+        <v>22.41313311689449</v>
       </c>
       <c r="G13">
-        <v>3.65070948372255</v>
+        <v>2.063815883953245</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.75862985599163</v>
+        <v>12.29330973784625</v>
       </c>
       <c r="J13">
-        <v>9.98845130889438</v>
+        <v>5.364571009447718</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.25099462380381</v>
+        <v>9.608211679715177</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.70318145321315</v>
+        <v>15.6301601248015</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.43278636598173</v>
+        <v>30.90588358677402</v>
       </c>
       <c r="C14">
-        <v>10.87660546327873</v>
+        <v>16.70789195814904</v>
       </c>
       <c r="D14">
-        <v>8.918223938374309</v>
+        <v>6.142129164788419</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.76731474941815</v>
+        <v>22.34489043875655</v>
       </c>
       <c r="G14">
-        <v>3.651087887786297</v>
+        <v>2.064944940046123</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.78550656891364</v>
+        <v>12.34736317761947</v>
       </c>
       <c r="J14">
-        <v>9.993658907102017</v>
+        <v>5.380237555777856</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.24264428674914</v>
+        <v>9.554476665005925</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.72013435231699</v>
+        <v>15.60576084652131</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.36123248338155</v>
+        <v>30.73584163664936</v>
       </c>
       <c r="C15">
-        <v>10.83773209987273</v>
+        <v>16.62934218232852</v>
       </c>
       <c r="D15">
-        <v>8.916842526488672</v>
+        <v>6.127182919870747</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.77721949583371</v>
+        <v>22.30372669323313</v>
       </c>
       <c r="G15">
-        <v>3.651321011505923</v>
+        <v>2.065637948348529</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.80208112291504</v>
+        <v>12.38092820970547</v>
       </c>
       <c r="J15">
-        <v>9.99686685353111</v>
+        <v>5.389856846136088</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.23755315557446</v>
+        <v>9.521487392788798</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.73065075380523</v>
+        <v>15.59136928885018</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.94653631646676</v>
+        <v>29.74447993580992</v>
       </c>
       <c r="C16">
-        <v>10.61189510086559</v>
+        <v>16.1725084663066</v>
       </c>
       <c r="D16">
-        <v>8.909188945945282</v>
+        <v>6.041490553154369</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.83679387042798</v>
+        <v>22.07749353165981</v>
       </c>
       <c r="G16">
-        <v>3.652677531010536</v>
+        <v>2.069631976926777</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.8987762588227</v>
+        <v>12.57998323934303</v>
       </c>
       <c r="J16">
-        <v>10.01552883494113</v>
+        <v>5.445342100728772</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.20874542212698</v>
+        <v>9.331322363260171</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.79293930214587</v>
+        <v>15.5172192963584</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.68808588178169</v>
+        <v>29.12112810951528</v>
       </c>
       <c r="C17">
-        <v>10.47065243671363</v>
+        <v>15.88629266098782</v>
       </c>
       <c r="D17">
-        <v>8.904729454600961</v>
+        <v>5.988901197821319</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.87584630053882</v>
+        <v>21.94721075079559</v>
       </c>
       <c r="G17">
-        <v>3.653528119185532</v>
+        <v>2.072103244387976</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.95962380717693</v>
+        <v>12.70779477003471</v>
       </c>
       <c r="J17">
-        <v>10.02722640958524</v>
+        <v>5.479710381346408</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.19140539984157</v>
+        <v>9.213703915980561</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.83295247783008</v>
+        <v>15.47897463413004</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.53798649138988</v>
+        <v>28.75697923309364</v>
       </c>
       <c r="C18">
-        <v>10.38843823724658</v>
+        <v>15.71948390889182</v>
       </c>
       <c r="D18">
-        <v>8.902251607142714</v>
+        <v>5.958652930414797</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.89922665537593</v>
+        <v>21.87535280605247</v>
       </c>
       <c r="G18">
-        <v>3.654024136338892</v>
+        <v>2.073532709792992</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.9951831821679</v>
+        <v>12.78329438618372</v>
       </c>
       <c r="J18">
-        <v>10.03404627406207</v>
+        <v>5.499602353123428</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.18155593328321</v>
+        <v>9.145716805037804</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.85662722476486</v>
+        <v>15.45956599891093</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.48692130457645</v>
+        <v>28.63271743339359</v>
       </c>
       <c r="C19">
-        <v>10.36043610722196</v>
+        <v>15.66263081275534</v>
       </c>
       <c r="D19">
-        <v>8.901427662793159</v>
+        <v>5.94841203112493</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.90730035827249</v>
+        <v>21.85154671746763</v>
       </c>
       <c r="G19">
-        <v>3.654193245509944</v>
+        <v>2.07401811554359</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.0073193975434</v>
+        <v>12.80918859729141</v>
       </c>
       <c r="J19">
-        <v>10.03637113680321</v>
+        <v>5.50635905342254</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.17824255103023</v>
+        <v>9.122641430094816</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.86475632031608</v>
+        <v>15.4534321003645</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.71574895686672</v>
+        <v>29.18806519125986</v>
       </c>
       <c r="C20">
-        <v>10.48578927560134</v>
+        <v>15.91698713044547</v>
       </c>
       <c r="D20">
-        <v>8.905195168230588</v>
+        <v>5.994499614014902</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.8715939954254</v>
+        <v>21.96075997474872</v>
       </c>
       <c r="G20">
-        <v>3.653436871156607</v>
+        <v>2.07183934684192</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.95308836834227</v>
+        <v>12.69398114695989</v>
       </c>
       <c r="J20">
-        <v>10.02597169377073</v>
+        <v>5.476039027389486</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.19323847638209</v>
+        <v>9.226259763276586</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.82862463759587</v>
+        <v>15.48277624922653</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.46701477500098</v>
+        <v>30.98712523521604</v>
       </c>
       <c r="C21">
-        <v>10.89519146424387</v>
+        <v>16.74544011868689</v>
       </c>
       <c r="D21">
-        <v>8.918890992017024</v>
+        <v>6.149295327973691</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.76261501625754</v>
+        <v>22.3648020079346</v>
       </c>
       <c r="G21">
-        <v>3.650976462114072</v>
+        <v>2.064613013025716</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.77758892864061</v>
+        <v>12.33139071132912</v>
       </c>
       <c r="J21">
-        <v>9.992125529580857</v>
+        <v>5.375631119428859</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.24509205639858</v>
+        <v>9.570275652518616</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.71512730245049</v>
+        <v>15.61281172477516</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.94428156475577</v>
+        <v>32.1136479316518</v>
       </c>
       <c r="C22">
-        <v>11.15373767790964</v>
+        <v>17.26731710903425</v>
       </c>
       <c r="D22">
-        <v>8.928607060670613</v>
+        <v>6.250316273831048</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.69961796042028</v>
+        <v>22.65724636793654</v>
       </c>
       <c r="G22">
-        <v>3.649428476210904</v>
+        <v>2.059955006087925</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.66789301534094</v>
+        <v>12.11451519105172</v>
       </c>
       <c r="J22">
-        <v>9.970817648868845</v>
+        <v>5.311049884808973</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.28004670641869</v>
+        <v>9.791793757581777</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.64686537965068</v>
+        <v>15.72238416042616</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.69085005946364</v>
+        <v>31.51687399216079</v>
       </c>
       <c r="C23">
-        <v>11.0165872084455</v>
+        <v>16.99057464449348</v>
       </c>
       <c r="D23">
-        <v>8.923351949217292</v>
+        <v>6.19641953874942</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.73248563177822</v>
+        <v>22.49852254807567</v>
       </c>
       <c r="G23">
-        <v>3.650249189365183</v>
+        <v>2.06243549143649</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.72598182145152</v>
+        <v>12.22829983217123</v>
       </c>
       <c r="J23">
-        <v>9.982115924637156</v>
+        <v>5.345426095307753</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.26129521742503</v>
+        <v>9.673882918077943</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.68275509025131</v>
+        <v>15.66158146901622</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.70324718273678</v>
+        <v>29.15782093422504</v>
       </c>
       <c r="C24">
-        <v>10.47894905872996</v>
+        <v>15.90311719704912</v>
       </c>
       <c r="D24">
-        <v>8.904984351196337</v>
+        <v>5.991968611833082</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.87351357057662</v>
+        <v>21.95462490248739</v>
       </c>
       <c r="G24">
-        <v>3.653478102573687</v>
+        <v>2.071958627746489</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.95604124194503</v>
+        <v>12.70022002248093</v>
       </c>
       <c r="J24">
-        <v>10.02653865552778</v>
+        <v>5.477698430946984</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.19240936968737</v>
+        <v>9.220584403103448</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.83057916552845</v>
+        <v>15.48104952419155</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.58334989288337</v>
+        <v>26.39818568022426</v>
       </c>
       <c r="C25">
-        <v>9.862009690349725</v>
+        <v>14.6467700951527</v>
       </c>
       <c r="D25">
-        <v>8.888508822487228</v>
+        <v>5.771528426424665</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.06071600656732</v>
+        <v>21.48483378969534</v>
       </c>
       <c r="G25">
-        <v>3.657220493876783</v>
+        <v>2.082542434943909</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.22566362935043</v>
+        <v>13.28419380745986</v>
       </c>
       <c r="J25">
-        <v>10.0779654566289</v>
+        <v>5.625160561924679</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.12286866710939</v>
+        <v>8.719046114697836</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.01525143208717</v>
+        <v>15.38428128282227</v>
       </c>
     </row>
   </sheetData>
